--- a/学生个人课表_2021212702.xlsx
+++ b/学生个人课表_2021212702.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\VSCode\BUPT-iOSCalendar-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECDD00BE-769C-41A3-A53D-849D4599E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA36222-AB9A-4973-94FE-C0E1E431CD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -803,20 +803,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,11 +1131,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -1144,28 +1144,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1197,25 +1197,25 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1223,25 +1223,25 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1249,25 +1249,25 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1275,25 +1275,25 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1301,25 +1301,25 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1327,25 +1327,25 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1353,25 +1353,25 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1379,25 +1379,25 @@
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1405,25 +1405,25 @@
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1431,25 +1431,25 @@
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1457,25 +1457,25 @@
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1483,25 +1483,25 @@
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1509,25 +1509,25 @@
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1535,39 +1535,39 @@
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/学生个人课表_2021212702.xlsx
+++ b/学生个人课表_2021212702.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\VSCode\BUPT-iOSCalendar-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA36222-AB9A-4973-94FE-C0E1E431CD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{875A9BBA-BC17-413E-B3BC-54E2B8AC5CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>北京邮电大学 梁哲与 学生个人课表</t>
+  </si>
+  <si>
+    <t>学年学期：2022-2023-2        班级：2021215105        专业：电信工程及管理        学院：国际学院        打印日期：2023-02-21</t>
   </si>
   <si>
     <t/>
@@ -511,14 +514,6 @@
   <si>
     <t>13
 19:20-20:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-JAVA语言程序设计
-张光卫
-1-16[周]
-N507
-[13-14]节</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -624,100 +619,12 @@
   <si>
     <t>备注：Web创新实践 郄培 1-16周;科研素养与创新能力 杨俊俐 1-16周;区块链技术及创新实践 郭莉,李蓝天,王冬宇,康天宇,徐士彪 1-16周;学术交流技能2 程立 1-16周;毛泽东思想和中国特色社会主义理论体系概论（实践环节） 苏娜 1-16周;个人发展计划2 James Robert Kelly 13周;Design ＆ Build 实训1 史晓东 19周;</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学年学期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2022-2023-2        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班级：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2021215105        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专业：电信工程及管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学院：国际学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打印日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2023-02-19</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -740,23 +647,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -795,28 +685,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,11 +1016,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -1143,431 +1028,430 @@
     <col min="2" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="323.14999999999998" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="323.14999999999998" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="149.15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="186.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="186.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="372.9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>14</v>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="360.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>14</v>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="211.3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>14</v>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="161.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>14</v>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>14</v>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>14</v>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/学生个人课表_2021212702.xlsx
+++ b/学生个人课表_2021212702.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\VSCode\BUPT-iOSCalendar-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{875A9BBA-BC17-413E-B3BC-54E2B8AC5CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC52E99-A74A-4A39-9457-FB976C674AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
   <si>
     <t>北京邮电大学 梁哲与 学生个人课表</t>
   </si>
@@ -619,12 +619,475 @@
   <si>
     <t>备注：Web创新实践 郄培 1-16周;科研素养与创新能力 杨俊俐 1-16周;区块链技术及创新实践 郭莉,李蓝天,王冬宇,康天宇,徐士彪 1-16周;学术交流技能2 程立 1-16周;毛泽东思想和中国特色社会主义理论体系概论（实践环节） 苏娜 1-16周;个人发展计划2 James Robert Kelly 13周;Design ＆ Build 实训1 史晓东 19周;</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">数字信号处理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yixuan ZOU
+2[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]
+S104
+[13-14]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">节
+数字信号处理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yixuan ZOU
+3[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]
+S103
+[13-14]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Build </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实训</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">史晓东
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]
+S3-213
+[01-02-03-04-05-06-07-08-09-10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">互联网协议与网络
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Richard Clegg
+2[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]
+S104
+[01-02]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">节
+数字信号处理
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yixuan ZOU
+10[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]
+S104
+[01-02]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">节
+数字电路设计
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Md Hasanuzzaman Sagor
+3-4,12-13[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]
+S104
+[01-02]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">节
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JAVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">高级语言程序设计
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paula Fonseca,Atm Shafiul ALAM
+5,8,14[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]
+S104
+[01-02]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">节
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Build </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实训</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">史晓东
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]
+S3-213
+[01-02-03-04-05-06-07-08-09-10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -648,6 +1111,17 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -685,23 +1159,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,442 +1498,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.15234375" style="1"/>
+    <col min="2" max="8" width="41.23046875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="6.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="22.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="385.3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="385.3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:8" ht="261" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="261" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="323.14999999999998" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="8" spans="1:8" ht="136.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="323.14999999999998" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="9" spans="1:8" ht="136.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="149.15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="10" spans="1:8" ht="136.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="385.3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="186.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="12" spans="1:8" ht="323.14999999999998" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="186.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="13" spans="1:8" ht="323.14999999999998" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
+    <row r="14" spans="1:8" ht="198.9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="372.9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
+    <row r="15" spans="1:8" ht="136.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="360.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
+    <row r="16" spans="1:8" ht="385.3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="211.3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="161.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="1:8" ht="385.3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="F17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/学生个人课表_2021212702.xlsx
+++ b/学生个人课表_2021212702.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\VSCode\BUPT-iOSCalendar-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC52E99-A74A-4A39-9457-FB976C674AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E4A4EF-389F-474D-853A-39412ADD0523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
